--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1583295.940357229</v>
+        <v>1580664.818329685</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12450563.82877701</v>
+        <v>12459789.44490648</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673463</v>
+        <v>461523.3857480717</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10416930.81148538</v>
+        <v>10470467.40536549</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.33592091243901</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663203</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368123</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>173.9484321805923</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +756,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>13.67316772797489</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714231</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>112.3394215371063</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553077</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.34308217384573</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663203</v>
+        <v>34.0662731935379</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3956966967184</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>89.26442493048772</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1224890938482</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>306.9050829712638</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>87.86936230874664</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5501586861724</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>58.23361186507375</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6419342461042</v>
+        <v>28.24071138739905</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5237072156546533</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>45.98081933218721</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8503305175652</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2412175406094</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>20.29684812141807</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>13.51821264165706</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.718218467906</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.3378417975131</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.4046174348861</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.4256303918559</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>93.71269568157099</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>23.36412778503681</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>120.5942620085043</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8152053197015</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>156.4947866225636</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833912</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>7.028357937261491</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201345</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111902</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292355</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.949422691779</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6934939670195</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749278</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271490034</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254634</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7670384496465</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.39433437080755</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>97.16903449248449</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628557</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389548</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465558</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1978462422561</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001819</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503539</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>57.25375453658309</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.28299328486983</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261881</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2715658672529</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>56.9239585097025</v>
+        <v>86.27179222793463</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352753</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>298.9494425801222</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>171.0047611333042</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.34976602775372</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>4.019807611471797</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>152.2221689967094</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673016</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.6028762599953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>73.78331078915119</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>110.0177171766852</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036635</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="C2" t="n">
-        <v>549.2024635036635</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>549.2024635036635</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>359.7826784871783</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513813</v>
+        <v>217.6519665656068</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.8121315905899</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644764</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201486</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201486</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036635</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036635</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036635</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036635</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036635</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.2024635036635</v>
+        <v>414.0172523312953</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843293</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="C3" t="n">
-        <v>722.9192922843293</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="D3" t="n">
-        <v>573.9848826230781</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="E3" t="n">
-        <v>414.7474276176226</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2128696445076</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G3" t="n">
-        <v>130.6736884669567</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>28.81332750661359</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843293</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843293</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843293</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843293</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843293</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843293</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843293</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843293</v>
+        <v>609.4451291155344</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818519</v>
+        <v>333.4755509884887</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818519</v>
+        <v>333.4755509884887</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818519</v>
+        <v>333.4755509884887</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818519</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818519</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818519</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818519</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818519</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594235</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745587</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340738</v>
+        <v>465.2530182692154</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287309</v>
+        <v>650.9033495638723</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846289</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846289</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846289</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681438</v>
+        <v>712.3151210214586</v>
       </c>
       <c r="U4" t="n">
-        <v>417.5120799411555</v>
+        <v>712.3151210214586</v>
       </c>
       <c r="V4" t="n">
-        <v>417.5120799411555</v>
+        <v>522.8953360049736</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246703</v>
+        <v>522.8953360049736</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818519</v>
+        <v>522.8953360049736</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818519</v>
+        <v>333.4755509884887</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.536980305136</v>
+        <v>864.0336327242945</v>
       </c>
       <c r="C5" t="n">
-        <v>1739.536980305136</v>
+        <v>864.0336327242945</v>
       </c>
       <c r="D5" t="n">
-        <v>1649.370894516765</v>
+        <v>864.0336327242945</v>
       </c>
       <c r="E5" t="n">
-        <v>1263.58264191852</v>
+        <v>864.0336327242945</v>
       </c>
       <c r="F5" t="n">
-        <v>852.596737128913</v>
+        <v>453.047727934687</v>
       </c>
       <c r="G5" t="n">
-        <v>436.3113946098744</v>
+        <v>440.6358706669656</v>
       </c>
       <c r="H5" t="n">
-        <v>126.3062602954665</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
-        <v>37.54932867046985</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>125.5342965407785</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>308.1394738743165</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>571.5791052688231</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>896.3758920220555</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.042038728374</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1533.72252980107</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1757.552325312005</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1877.466433523492</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1877.466433523492</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1739.536980305136</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1739.536980305136</v>
+        <v>1627.638722961186</v>
       </c>
       <c r="U5" t="n">
-        <v>1739.536980305136</v>
+        <v>1627.638722961186</v>
       </c>
       <c r="V5" t="n">
-        <v>1739.536980305136</v>
+        <v>1627.638722961186</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.536980305136</v>
+        <v>1627.638722961186</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.536980305136</v>
+        <v>1254.172964700106</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.536980305136</v>
+        <v>864.0336327242945</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>804.2498325729932</v>
+        <v>357.7241497953077</v>
       </c>
       <c r="C6" t="n">
-        <v>629.7968032918662</v>
+        <v>357.7241497953077</v>
       </c>
       <c r="D6" t="n">
-        <v>480.862393630615</v>
+        <v>208.7897401340564</v>
       </c>
       <c r="E6" t="n">
-        <v>321.6249386251595</v>
+        <v>208.7897401340564</v>
       </c>
       <c r="F6" t="n">
-        <v>175.0903806520444</v>
+        <v>62.25518216094142</v>
       </c>
       <c r="G6" t="n">
-        <v>38.0783258579998</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>38.0783258579998</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
-        <v>37.54932867046985</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>185.9916966408919</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>321.5493144971364</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>550.1458017090955</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>836.2639882579886</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.363516749343</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1403.994597991577</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1593.038363925642</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
-        <v>1877.466433523492</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1877.466433523492</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1877.466433523492</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1877.466433523492</v>
+        <v>1490.841830594767</v>
       </c>
       <c r="U6" t="n">
-        <v>1877.466433523492</v>
+        <v>1262.725413725739</v>
       </c>
       <c r="V6" t="n">
-        <v>1642.31432529175</v>
+        <v>1027.573305493996</v>
       </c>
       <c r="W6" t="n">
-        <v>1388.076968563548</v>
+        <v>773.3359487657945</v>
       </c>
       <c r="X6" t="n">
-        <v>1180.225468358015</v>
+        <v>565.4844485602616</v>
       </c>
       <c r="Y6" t="n">
-        <v>972.4651695930613</v>
+        <v>357.7241497953077</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.0011876334303</v>
+        <v>352.7820334028012</v>
       </c>
       <c r="C7" t="n">
-        <v>334.5559155807159</v>
+        <v>183.8458504748943</v>
       </c>
       <c r="D7" t="n">
-        <v>184.4392761683802</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>184.4392761683802</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
-        <v>37.54932867046985</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>37.54932867046985</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>37.54932867046985</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
-        <v>37.54932867046985</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>44.97225155316389</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0072307948259</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>424.289537895295</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>684.8595843928488</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>944.6684740092345</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.627739342811</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1336.742898765455</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1369.702040900195</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1369.702040900195</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1369.702040900195</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.61079795316</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>856.4782549828473</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>601.7937667769604</v>
+        <v>1272.629798311549</v>
       </c>
       <c r="W7" t="n">
-        <v>601.7937667769604</v>
+        <v>983.2126282745884</v>
       </c>
       <c r="X7" t="n">
-        <v>601.7937667769604</v>
+        <v>755.223077376571</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.0011876334303</v>
+        <v>534.4304982330409</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1273.394428216506</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1273.394428216506</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1259.739667972408</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>873.9514153741634</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>462.9655105845558</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>47.08852223313549</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>47.08852223313549</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>47.08852223313549</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>169.0423345016261</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>402.5580040735194</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>729.1566029033759</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1124.229910358618</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1530.309725343745</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1900.424118318903</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2181.807188965131</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2344.941409938268</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2354.426111656775</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2225.802029033024</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2016.302415462432</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2016.302415462432</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2016.302415462432</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1663.533760192317</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1663.533760192317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1273.394428216506</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3009578495022</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8479285683752</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9135189071239</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6760639016685</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1415059285534</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.3479398761737</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>70.68865130893025</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>47.08852223313549</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145204</v>
+        <v>225.7356553830072</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>522.8844040362777</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>797.9766854654055</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1138.353270800802</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1502.147256443633</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1812.727885184074</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2042.663154776903</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2354.426111656775</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2354.426111656775</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2354.426111656775</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.613725789598</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.517558800001</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.365450568258</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.128093840057</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.276593634524</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.51629486957</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>819.0199276966752</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>650.0837447687683</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>499.9671053564325</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>352.0540117740394</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>205.164064276129</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>47.08852223313549</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>47.08852223313549</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>47.08852223313549</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>67.20410769253682</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>230.0970305796043</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>494.0703244075353</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>782.782274056711</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1070.063915268019</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1319.398713293205</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1509.227024692256</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1557.219227775183</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1557.219227775183</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1557.219227775183</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1557.219227775183</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.950414897297</v>
+        <v>1557.219227775183</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1557.219227775183</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1267.802057738223</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1039.812506840205</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>819.0199276966752</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1634.795839800901</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C11" t="n">
-        <v>1265.833322860489</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D11" t="n">
-        <v>907.5676242537384</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>521.7793716554943</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>514.6800202037151</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>100.1852123103652</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1852123103652</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223387</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746712</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947032</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653013</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458664</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328185</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990706</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608852</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718594</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111694</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.76569667622</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T11" t="n">
-        <v>3722.316578060831</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.832312715599</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.769425372028</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W11" t="n">
-        <v>2785.000770101914</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X11" t="n">
-        <v>2411.535011840834</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2021.395679865022</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5545302742961</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1015009931691</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1670913319178</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9296363264624</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3950783533473</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3410440432266</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727431</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223387</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J12" t="n">
-        <v>197.7334562039221</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K12" t="n">
-        <v>197.7334562039221</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="L12" t="n">
-        <v>630.2027971699468</v>
+        <v>583.5439560698318</v>
       </c>
       <c r="M12" t="n">
-        <v>1154.230987988557</v>
+        <v>1175.562310321959</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.537290639337</v>
+        <v>1797.658273721295</v>
       </c>
       <c r="O12" t="n">
-        <v>2189.569860571537</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2557.913016602452</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2557.913016602452</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
-        <v>2557.913016602452</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.215892839358</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.818644810297</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.771131224795</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.619022993052</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.381666264851</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.530166059318</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.769867294364</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>425.0189581115294</v>
+        <v>677.2291802831428</v>
       </c>
       <c r="C13" t="n">
-        <v>256.0827751836225</v>
+        <v>508.2929973552359</v>
       </c>
       <c r="D13" t="n">
-        <v>256.0827751836225</v>
+        <v>358.1763579429002</v>
       </c>
       <c r="E13" t="n">
-        <v>256.0827751836225</v>
+        <v>358.1763579429002</v>
       </c>
       <c r="F13" t="n">
-        <v>256.0827751836225</v>
+        <v>358.1763579429002</v>
       </c>
       <c r="G13" t="n">
-        <v>224.3713263242215</v>
+        <v>190.962163117479</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223387</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223387</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283899</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076813</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977116</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583782</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955083</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510214</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226115</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167695</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.821283191648</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.650987192704</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T13" t="n">
-        <v>1706.991479973961</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.902746395924</v>
+        <v>1851.761433397778</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.218258190037</v>
+        <v>1597.076945191891</v>
       </c>
       <c r="W13" t="n">
-        <v>873.8010881530769</v>
+        <v>1307.65977515493</v>
       </c>
       <c r="X13" t="n">
-        <v>645.8115372550595</v>
+        <v>1079.670224256913</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0189581115294</v>
+        <v>858.8776451133825</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965433</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358683</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760439</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708309</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I14" t="n">
         <v>92.8116232260805</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128763</v>
+        <v>841.9378825128747</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127287</v>
@@ -5306,16 +5306,16 @@
         <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100994</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820543</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
         <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206858</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
         <v>3093.963640945778</v>
@@ -5361,22 +5361,22 @@
         <v>92.8116232260805</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733493</v>
+        <v>372.2013186925061</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254768</v>
+        <v>964.2196729446337</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.6674866466266</v>
+        <v>723.765042059712</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187197</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="D16" t="n">
-        <v>387.614664306384</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>92.8116232260805</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
         <v>92.8116232260805</v>
@@ -5434,13 +5434,13 @@
         <v>92.8116232260805</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693319</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149097</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>2187.37350885962</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178206</v>
+        <v>1898.297295174347</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.766099972319</v>
+        <v>1643.61280696846</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935358</v>
+        <v>1354.195636931499</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373409</v>
+        <v>1126.206086033482</v>
       </c>
       <c r="Y16" t="n">
-        <v>888.3159514768663</v>
+        <v>905.4135068899517</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>742.4225746200307</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4394675364371</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608043</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J17" t="n">
         <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128747</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O17" t="n">
         <v>3602.609239333932</v>
@@ -5534,31 +5534,31 @@
         <v>4150.91518802128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412853</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>570.9683475412853</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1162.986701793413</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1785.082665192749</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.959140192943</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>858.8776451133828</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C19" t="n">
-        <v>689.9414621854759</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D19" t="n">
-        <v>632.4425141958775</v>
+        <v>406.915765549412</v>
       </c>
       <c r="E19" t="n">
-        <v>484.5294206134844</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5294206134844</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
         <v>171.7937461156344</v>
@@ -5698,25 +5698,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1851.761433397778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1597.076945191891</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>1079.670224256913</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y19" t="n">
-        <v>858.8776451133828</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
         <v>1948.261951965432</v>
@@ -5741,61 +5741,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607952</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251921</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128738</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018648</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957685</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874791</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.60923933393</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126173</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
         <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412853</v>
+        <v>570.9683475412849</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.700680385037</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1653.719034637164</v>
+        <v>1653.719034637163</v>
       </c>
       <c r="N21" t="n">
-        <v>2275.814998036501</v>
+        <v>2275.814998036499</v>
       </c>
       <c r="O21" t="n">
         <v>2552.77562977024</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.385284034031</v>
+        <v>570.8347179409782</v>
       </c>
       <c r="C22" t="n">
-        <v>929.4491011061236</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.3324616937879</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="E22" t="n">
-        <v>631.4193681113948</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.5294206134844</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880632</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264937</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
         <v>1238.413883213791</v>
@@ -5923,37 +5923,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.51642936867</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.51642936867</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T22" t="n">
-        <v>2140.837647083052</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U22" t="n">
-        <v>1851.761433397778</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V22" t="n">
-        <v>1597.076945191891</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W22" t="n">
-        <v>1307.659775154931</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X22" t="n">
-        <v>1307.659775154931</v>
+        <v>964.3593790373409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.03374886427</v>
+        <v>743.5667998938108</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876686</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614385</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179083</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
         <v>402.7245934908939</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138409</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>916.2946447138409</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>766.1780053015052</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>618.264911719112</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>471.3749642212018</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138409</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400714</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703112</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1091.109053668158</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>922.1728707402515</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>772.0562313279157</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>624.1431377455226</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>477.2531902476122</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>310.0570909624922</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>168.3452598046902</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498398</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1272.757518498398</v>
       </c>
     </row>
     <row r="41">
@@ -7412,19 +7412,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400708</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8143,16 +8143,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>107.2331895657672</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711119</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>98.860651885941</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709376</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.81425792047534</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>116.0171422436678</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>40.03210144397046</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566572</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>128.2950354859223</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>26.60228845827594</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>399.8476878044499</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632823</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>134.3749545600133</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>43.28495529946943</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247378</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729232</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.29152613729244</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>160.2282399261787</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.301660067225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>50.29152613729252</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50.29152613729138</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>91.69151450850985</v>
+        <v>62.34368079027773</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729214</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>50.29152613729082</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>8.827219048633054</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440906</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108361</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.2348873243411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.5956654067406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>13.30196929555948</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>7.482525529414346</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>38.59775584152715</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>926031.2654290419</v>
+        <v>925386.0870708916</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>929636.9545833386</v>
+        <v>928252.4973930048</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834007.4685036239</v>
+        <v>896366.5160321051</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896366.516032105</v>
+        <v>896366.5160321048</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896366.5160321052</v>
+        <v>896366.5160321048</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896366.5160321052</v>
+        <v>896366.5160321051</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.026889278</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117838</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797083</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="F2" t="n">
         <v>521741.85156472</v>
@@ -26332,28 +26332,28 @@
         <v>521741.85156472</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>311981.9644455522</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>175633.9610741917</v>
+        <v>173199.1279427747</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979625</v>
+        <v>545349.5809351688</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046405</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744848</v>
+        <v>10818.91345744905</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>72536.85994794701</v>
+        <v>60247.15959153561</v>
       </c>
       <c r="L3" t="n">
-        <v>43333.79145930739</v>
+        <v>42264.01779340612</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824254</v>
+        <v>142429.7457480734</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612283005</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632063</v>
+        <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195213.9682058036</v>
+        <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>160857.0646693438</v>
       </c>
       <c r="E4" t="n">
-        <v>14130.22632423</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="F4" t="n">
         <v>14210.2194556297</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>79410.78191609005</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>88852.82756054436</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166982</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392834.7291838815</v>
+        <v>-392834.7291838814</v>
       </c>
       <c r="C6" t="n">
-        <v>-52929.56415566147</v>
+        <v>-10311.95296079808</v>
       </c>
       <c r="D6" t="n">
-        <v>118746.0494846899</v>
+        <v>110768.130239121</v>
       </c>
       <c r="E6" t="n">
-        <v>34349.858405846</v>
+        <v>-138005.9823354824</v>
       </c>
       <c r="F6" t="n">
-        <v>263537.4735906114</v>
+        <v>407343.5985996863</v>
       </c>
       <c r="G6" t="n">
-        <v>407389.5035952515</v>
+        <v>407343.5985996862</v>
       </c>
       <c r="H6" t="n">
-        <v>407389.5035952519</v>
+        <v>407343.5985996866</v>
       </c>
       <c r="I6" t="n">
-        <v>398487.0944402933</v>
+        <v>398452.3565148569</v>
       </c>
       <c r="J6" t="n">
-        <v>360241.0631691971</v>
+        <v>360206.3252437614</v>
       </c>
       <c r="K6" t="n">
-        <v>336769.1479497949</v>
+        <v>349024.1103807705</v>
       </c>
       <c r="L6" t="n">
-        <v>365972.2164384346</v>
+        <v>367007.2521788998</v>
       </c>
       <c r="M6" t="n">
-        <v>318312.0322894994</v>
+        <v>266841.5242242325</v>
       </c>
       <c r="N6" t="n">
-        <v>371483.9017749119</v>
+        <v>409271.2699723062</v>
       </c>
       <c r="O6" t="n">
-        <v>409306.0078977419</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977419</v>
+        <v>409271.2699723061</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>791.0867947950908</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>891.6491129982286</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053765</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>469.3666083808731</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>588.6065279141936</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527923</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>242.6168538821858</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>142.9780973224483</v>
+        <v>141.6681565006186</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362258</v>
+        <v>466.391935718157</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>281.8410212145528</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>171.2182237191658</v>
+        <v>166.9913896322118</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278845</v>
+        <v>571.5387624118129</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980829</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>281.8410212145528</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>171.2182237191658</v>
+        <v>166.9913896322118</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278845</v>
+        <v>571.5387624118129</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980829</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>281.8410212145528</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>171.2182237191658</v>
+        <v>166.9913896322118</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278845</v>
+        <v>571.5387624118129</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980829</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059415</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>378.5401248292724</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637378</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988648</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>153.8038262895426</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35.10564402753165</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>120.461165612319</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.1940863237798</v>
+        <v>189.6534002965622</v>
       </c>
       <c r="U4" t="n">
-        <v>147.8693847967319</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750788</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577467</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>265.4186166901952</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1743120999484</v>
+        <v>151.6640803641097</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0912330341336</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>107.4896391901375</v>
       </c>
       <c r="H6" t="n">
-        <v>95.80173553707391</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>30.28772432310511</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.077014726883</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3061554456076</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294358364283</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>121.2660017664406</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5644294006316</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5438465187576</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5502271045999</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1505178188659</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>199.155722862838</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>231.8407952024099</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>341.1648289790259</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>302.7648464233325</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>72.28371900210755</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0588913840582</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>136.0592655043332</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>71.84003711230436</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>9.888300892783576</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.9315523023204</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>107.0967820453216</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>104.9967272314443</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>195.9954283711099</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>221.075506098623</v>
       </c>
       <c r="U10" t="n">
-        <v>235.2464059957725</v>
+        <v>286.2313261650484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180248421286795</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>32.5697191445034</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6065272616593</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9196094461903</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>404.5395251192604</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>501.8670527422163</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>558.4237956042753</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>567.4596764312564</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>535.8360811920859</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>457.323698291568</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.4310517042346</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>199.7712798936568</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>72.4699109000729</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92153746418295</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544198737029435</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701582917106422</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43370869942255</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>58.58520131265531</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7622702517081</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>274.7683256978383</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>369.4599224182167</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>431.1423031633244</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>442.5533570240952</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>404.8498618608423</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>324.9277063376289</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2055667520408</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6474025199935</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>31.60615637695479</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.858573249214039</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1119462445464752</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426549957827213</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68332598868196</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>42.90024782265837</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8570820183839</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7391678275616</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>212.0890728209658</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6181902074057</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3010494555045</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6363522208865</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5347330812112</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4541060140587</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>64.14287355830356</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86087517413424</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>6.095258910716271</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07781181588148442</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.584519047229057</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>36.70995569243459</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>138.1921705682984</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>304.2315734847575</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>455.9642647539635</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>565.6639895455999</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>629.4101801517596</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>639.5946948946992</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>603.9511336188152</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>515.4583196403478</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>387.0877312614571</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>225.1660446005025</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>81.68222778873222</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>15.6912321292452</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2867615237783245</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.91788677135468</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>18.52274855492547</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>66.03250506637826</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>181.1982409725929</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>309.6966546533565</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>416.4253711224275</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>485.9487665840345</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>498.8103844498298</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>456.3140512529708</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>366.2322554878951</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>244.816564006608</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>119.077215505688</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>35.62390559950467</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>7.730429574012941</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1261767612733343</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.60789184311156</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.29562020511915</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>48.35369288193673</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>113.6779533079873</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>186.8077977724157</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>239.0496654749677</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>252.0443550070238</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>246.05130359179</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>227.2682034245322</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>194.4672098250562</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>134.6390160627325</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>72.2966641457252</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>28.02116966586235</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>6.87008332965848</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0877031914424488</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718649</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248488</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569559</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513698</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227903</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561588</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663141</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334811</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969599</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604682</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034813</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677681</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051263</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>21.6812221348959</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574919</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191117</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900369</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372850996</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2978179410993</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273739</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893018</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760397</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>630.507931244647</v>
+        <v>636.7678382119066</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849512</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837444</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605103</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.174343631328363</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637936</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027185</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478451</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340021</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201165</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326438</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250994</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857219</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537695</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299554</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361185</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088391</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801748</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725726</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347967</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
@@ -32081,28 +32081,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>152.1929830599437</v>
+        <v>420.7661933823243</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32306,7 +32306,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,19 +32318,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>357.0213665833166</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32388,7 +32388,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32397,16 +32397,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32418,7 +32418,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377423</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.9117101112228</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704058</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874063</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830428</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.543971036426</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293305</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229604</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086948</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687521</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148604</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987161</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665718</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901938</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088189</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848222</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504299</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927635</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169084</v>
+        <v>422.3544583169102</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862158</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013753</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548566</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284922</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900884</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640617</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426502</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465961</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q22" t="n">
         <v>205.0641983561742</v>
@@ -32655,10 +32655,10 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U22" t="n">
         <v>0.1335778080704643</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.6394564506241</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>123.3445726863789</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732831</v>
+        <v>100.2010091933416</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.87370491950406</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>184.4496740742799</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>266.100637772229</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>328.0775623770026</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>338.0466128346655</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>305.7378697703991</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>226.0907025362985</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.1253618297851</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>149.9417858287091</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9268867234793</v>
+        <v>186.0231941729573</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9055426383425</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>289.0082692413061</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>311.2116449407619</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>262.2536174163979</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>190.9532989232987</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.3010804018684</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.49790190171116</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>143.4696760016787</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>239.679098081282</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2020671692463</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>262.433221834733</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2214801349261</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8132923461047</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.29206276236432</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>123.1856689580712</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>235.874413708983</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>329.8975745756126</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>399.0639469244869</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>410.1816312981082</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>373.8529221971285</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>284.2253238850782</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>164.7820413870076</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>9.580506786370336</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065831</v>
+        <v>180.451649646335</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>300.1502511649198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>277.8709913425533</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>343.8147326620162</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>367.4686723664965</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>313.7178068085263</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>232.2578480735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>314.9120776564356</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>20.31877319131448</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>164.5383059465329</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>266.6396907352839</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>291.6282319688644</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>290.1834759710186</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>251.8533313385718</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>191.7457690899497</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>48.47697281103812</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246836</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778098</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861715</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390414</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368902</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752732</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051987</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290318</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363596</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.4601912744326</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181474997</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672835</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927064</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002026</v>
+        <v>494.1715937674621</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706209</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732932</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942337</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>357.89480029296</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>387.84395008694</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649504</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678092</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948489</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442411</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>13.63860328006947</v>
+        <v>282.2118136024501</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970737</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>223.0469591689864</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36048,19 +36048,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.31906616072</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380622</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020578</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870081</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404109</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104632</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284115</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094302</v>
       </c>
       <c r="O21" t="n">
-        <v>279.758213872464</v>
+        <v>279.7582138724658</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066044</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883426</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209158</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606358</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
